--- a/data/ssc_chsl_analysis_data.xlsx
+++ b/data/ssc_chsl_analysis_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a06b38564f9ff67/Desktop/ssc chsl cutoff analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a06b38564f9ff67/Desktop/ssc-chsl-cutoff-analysis-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{D77D830F-FD36-486D-BAD9-97B79684FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59D1CCD5-8B8A-402F-A046-0A3A6B1EF4FA}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{D77D830F-FD36-486D-BAD9-97B79684FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70915109-F647-452E-AD82-5F4FEA294AEB}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6811905B-16BA-4BDD-B948-DA3E038C6CF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6811905B-16BA-4BDD-B948-DA3E038C6CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="cutoff_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="24">
   <si>
     <t>LDC/JSA</t>
   </si>
@@ -77,6 +77,39 @@
   </si>
   <si>
     <t>EWS</t>
+  </si>
+  <si>
+    <t>source_name</t>
+  </si>
+  <si>
+    <t>source_type</t>
+  </si>
+  <si>
+    <t>SSC CHSL Tier-I Result Write-up</t>
+  </si>
+  <si>
+    <t>Official</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>CareerPower / Testbook</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Cut-off data was collected from official SSC CHSL Tier-I result write-up documents for each year.</t>
+  </si>
+  <si>
+    <t>Category-wise candidate participation data is not officially published by SSC. Candidate counts used in this study are estimated using total applicant figures, reservation proportions, and publicly available exam analytics.</t>
+  </si>
+  <si>
+    <t>The estimates represent relative competition density rather than exact participation figures.</t>
+  </si>
+  <si>
+    <t>Shift-wise normalization, regional variation, and individual candidate performance are outside the scope of this analysis.</t>
   </si>
 </sst>
 </file>
@@ -87,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +132,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +180,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,10 +201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6D43BE-68A8-40E9-9C9B-5A80FD5F809C}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
@@ -1844,24 +1887,132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C7A9AB-F21D-4860-921D-C8FC5F634B9F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6">
+      <c r="A2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6">
+      <c r="A3" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6">
+      <c r="A4" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6">
+      <c r="A5" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6">
+      <c r="A6" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77349D2-7188-4FC9-B3E1-9D46CF6140D6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>